--- a/medicine/Psychotrope/Beluga_(vodka)/Beluga_(vodka).xlsx
+++ b/medicine/Psychotrope/Beluga_(vodka)/Beluga_(vodka).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Beluga Noble Vodka[1] est une marque de vodka super-premium produite et embouteillée par Noblewood Group.
+Beluga Noble Vodka est une marque de vodka super-premium produite et embouteillée par Noblewood Group.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Fabricant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noblewood Group, Monténégro[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noblewood Group, Monténégro
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vodka Beluga Noble a été créée en 2002 par la distillerie Mariinsk[3]. Mariinsk elle-même a été fondée au XVIIIe siècle en Sibérie.
-Octobre 2022, "En raison de la situation politique actuelle, BELUGA GROUP a décidé de vendre les droits internationaux de la marque de vodka super-premium Beluga. La somme estimée de la transaction était de plus de 75 millions de dollars"[4].
-Mars 2023, Noblewood Group a officiellement lancé la production sur son site de production au Monténégro et a produit ses premières bouteilles de Beluga Vodka[5].
-Beluga est le résident permanent des classements industriels mondiaux en tant que marque la plus tendance et la plus vendue[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vodka Beluga Noble a été créée en 2002 par la distillerie Mariinsk. Mariinsk elle-même a été fondée au XVIIIe siècle en Sibérie.
+Octobre 2022, "En raison de la situation politique actuelle, BELUGA GROUP a décidé de vendre les droits internationaux de la marque de vodka super-premium Beluga. La somme estimée de la transaction était de plus de 75 millions de dollars".
+Mars 2023, Noblewood Group a officiellement lancé la production sur son site de production au Monténégro et a produit ses premières bouteilles de Beluga Vodka.
+Beluga est le résident permanent des classements industriels mondiaux en tant que marque la plus tendance et la plus vendue.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Processus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alcool de grain biologique provient de la distillerie de l'entreprise située à Jaunkalsnava, en Lettonie. Eau fournie par des puits artésiens. La vodka est produite et embouteillée à Nikšić, au Monténégro.
 </t>
@@ -608,7 +626,9 @@
           <t>Gamme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Beluga a la gamme suivante : Noble, Transatlantic, Allure, Goldline, Celebration et Beluga Epicure by Lalique.
 </t>
